--- a/apps/features/backlog/desktop/windows/signup/signup_submit_button.xlsx
+++ b/apps/features/backlog/desktop/windows/signup/signup_submit_button.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\signup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E052B1F3-FC1B-43BC-8B0A-82B95921F063}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A991A9C5-5E68-43D7-A98D-713FD6B619ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,8 +1502,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2197,7 +2197,7 @@
         <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="1"/>
@@ -2387,7 +2387,7 @@
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="25" t="s">
         <v>91</v>
       </c>
       <c r="D23" s="13" t="s">
